--- a/CCDxml Doc.xlsx
+++ b/CCDxml Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramish.shabbir\Desktop\ccd tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294D1033-F25D-4F8E-AF7C-4F4684543D93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D1DD94-2293-44EC-8FBF-BC9AFCE9B45C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14724" windowHeight="5088" xr2:uid="{2A91E91D-ABE2-420E-B590-8F51F8C21027}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>Allergies and adverse reactions</t>
   </si>
@@ -85,13 +85,6 @@
     <t>Code = Rx Norm</t>
   </si>
   <si>
-    <t>Code = ICD-10
-if diagnosis is added with the past date (previous)
-date through provider note workflow, it will not 
-show in Encounter Diagnosis and only be considered as problem diagnosis.
-Only present Date diagnosis would be populate in CCD (Encounter Diagnosis).</t>
-  </si>
-  <si>
     <t xml:space="preserve">Code = ICD-10
  </t>
   </si>
@@ -103,9 +96,6 @@
   </si>
   <si>
     <t>Details</t>
-  </si>
-  <si>
-    <t>Guide</t>
   </si>
   <si>
     <t>HL7 Guide</t>
@@ -202,6 +192,177 @@
 • Vaccine
 • Date
 • Status</t>
+  </si>
+  <si>
+    <t>Vital Signs</t>
+  </si>
+  <si>
+    <t>Four components would be populated in CCD.
+• Loinc Code
+• Vital Name
+• Value
+• Date Performed</t>
+  </si>
+  <si>
+    <t>Code = ICD-10
+if diagnosis is added with the past date (previous)
+date through provider note workflow, it will not 
+show in Encounter Diagnosis and only be considered as problem diagnosis.
+If diagnosis date and provider note creation date is same then it will be considered as Encounter Diagnosis.</t>
+  </si>
+  <si>
+    <t>Loinc</t>
+  </si>
+  <si>
+    <t>New component for each vital component.
+Observation Tag:
+under observation tag, there would be the vital name, codeSystemName and respective loinc in code tag.
+In tabular form, units and value are given.
+Under the author tag, 
+Assigned person would be the practice user and representation organization would be the practice. 
+if we add vitals two times in the provider notes, then the latest one would be displayed on CCD.</t>
+  </si>
+  <si>
+    <t>Social History (Smoking Status)</t>
+  </si>
+  <si>
+    <t>Three components are displayed on CCD
+• Social History Element  
+• Description 
+• Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No CodeSystem name
+only loinc code would be available under the code 
+tag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smoing status would be showed in tabular form only, no any entry would be created for it.
+Under the author tag, assigned person would be the practice user and organization would be practice.
+Only smoking status would be showed in CCD no other history and would be displayed on ccd.
+Current date would be displayed in the Date.
+A new section of author would be populated on the top of table.
+if status is former smoker, then in tabular form , more than one times details would be shared.
+</t>
+  </si>
+  <si>
+    <t>if we selected the type other than 
+cigratte then frequency dropdown 
+value should be changed according to
+ the selected type</t>
+  </si>
+  <si>
+    <t>Health Concerns
+(Through custom froms)</t>
+  </si>
+  <si>
+    <t>Assessments
+(Through custom forms)</t>
+  </si>
+  <si>
+    <t>Goals
+(Through Care plan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implantable devices </t>
+  </si>
+  <si>
+    <t>Three components are displayed on CCD
+• Device  
+• Assigning Authority 
+• Device Identifier
+• Date</t>
+  </si>
+  <si>
+    <t>no special code system only snomed ct against 
+device would be shown.</t>
+  </si>
+  <si>
+    <t>only one implantable device is coming
+in CCD?
+Date issue is present while marking it inactive to active.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entry would be create for device
+Author:
+author would be the practice user and organization would be practice.
+Under the participant tag,
+Device id and code would be showed.
+Status code:
+Date:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new entry for new goal.
+Author:
+author would be the practice user and organization would be practice.
+Status Code:
+Date:
+</t>
+  </si>
+  <si>
+    <t>Loinc would be send against each goal.</t>
+  </si>
+  <si>
+    <t>An entry would be created for health concerns.
+Act and observation entry would be created.
+Status Code: complete (for observation) and active for (act)</t>
+  </si>
+  <si>
+    <t>Loinc for act code and Snomed CT for (observation )
+as well as loinc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loinc </t>
+  </si>
+  <si>
+    <t>No entry would be created.
+Only available in tabular form.
+No status code</t>
+  </si>
+  <si>
+    <t>Procedure Note</t>
+  </si>
+  <si>
+    <t>Would be avilable with procedure as a Note.
+When we add result of procedure, it will consider as procedure note.</t>
+  </si>
+  <si>
+    <t>Author would be the practice user and organization would be practice.
+In the Entity relationship, template id and loinc would be sent.</t>
+  </si>
+  <si>
+    <t>Progress Notes</t>
+  </si>
+  <si>
+    <t>History and Physical Note</t>
+  </si>
+  <si>
+    <t>Consultation Note</t>
+  </si>
+  <si>
+    <t>Note and Date would populate in CCD only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author would be the practice user and organization would be practice.
+In the Entity relationship, template id and loinc would be sent.
+Entry would be created.
+StatusCode: Complete
+Date: Provider note creation date would be populate.
+</t>
+  </si>
+  <si>
+    <t>Loinc
+Same Template Id but different Loinc</t>
+  </si>
+  <si>
+    <t>Labortary Narrative Note</t>
+  </si>
+  <si>
+    <t>Cognitive Status</t>
+  </si>
+  <si>
+    <t>functional status</t>
   </si>
 </sst>
 </file>
@@ -245,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,8 +423,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5342332-A597-4345-9BFA-1E09C39EF187}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,11 +755,12 @@
     <col min="2" max="2" width="62.33203125" customWidth="1"/>
     <col min="3" max="3" width="110.109375" customWidth="1"/>
     <col min="4" max="4" width="46.77734375" customWidth="1"/>
-    <col min="5" max="5" width="44.5546875" customWidth="1"/>
+    <col min="5" max="5" width="46.88671875" customWidth="1"/>
     <col min="6" max="6" width="0.109375" customWidth="1"/>
+    <col min="7" max="7" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -605,14 +770,14 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -620,16 +785,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -637,16 +802,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="310.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="310.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -654,16 +819,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="147" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -673,28 +838,219 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
+      <c r="D5" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="253.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="253.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="166.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
